--- a/excel2.xlsx
+++ b/excel2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>NAME</t>
   </si>
@@ -22,28 +22,61 @@
     <t>EMAIL</t>
   </si>
   <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ARRIVAL DATE</t>
+  </si>
+  <si>
+    <t>ARRIVAL TIME</t>
+  </si>
+  <si>
+    <t>WAY OF TRAVELING</t>
+  </si>
+  <si>
+    <t>PNR NO.</t>
+  </si>
+  <si>
     <t>neha</t>
   </si>
   <si>
     <t>dhananineha28@gmail.com</t>
   </si>
   <si>
+    <t>GUJARAT</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>lorem89076</t>
+  </si>
+  <si>
     <t>komal</t>
   </si>
   <si>
     <t>komalvariya814@gmail.com</t>
   </si>
   <si>
+    <t>lorem89077</t>
+  </si>
+  <si>
     <t>ghanshyam</t>
   </si>
   <si>
     <t>vyasghanshyam2001@gmail.com</t>
+  </si>
+  <si>
+    <t>lorem89078</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -71,11 +104,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -304,38 +343,98 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>21.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45357.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>21.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45358.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>21.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45359.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
